--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/southafrica_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/southafrica_rawdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71557E09-4B7C-4750-A932-145F0C91B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age5yr" sheetId="1" r:id="rId1"/>
@@ -203,15 +209,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,26 +225,26 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -254,355 +256,18 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -610,251 +275,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -885,63 +308,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1139,24 +518,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1164,40 +541,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="11">
-        <v>2918.993</v>
+        <v>2918.9929999999999</v>
       </c>
       <c r="C2" s="11">
-        <v>2845.952</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>2845.9520000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11">
-        <v>2943.352</v>
+        <v>2943.3519999999999</v>
       </c>
       <c r="C3" s="11">
         <v>2877.308</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11">
-        <v>2774.621</v>
+        <v>2774.6210000000001</v>
       </c>
       <c r="C4" s="11">
-        <v>2721.342</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+        <v>2721.3420000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1205,21 +582,21 @@
         <v>2472.38</v>
       </c>
       <c r="C5" s="11">
-        <v>2440.831</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+        <v>2440.8310000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="11">
-        <v>2476.821</v>
+        <v>2476.8209999999999</v>
       </c>
       <c r="C6" s="11">
         <v>2447.27</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1227,54 +604,54 @@
         <v>2628.636</v>
       </c>
       <c r="C7" s="11">
-        <v>2588.762</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+        <v>2588.7620000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11">
-        <v>2710.031</v>
+        <v>2710.0309999999999</v>
       </c>
       <c r="C8" s="11">
-        <v>2664.079</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:3">
+        <v>2664.0790000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="11">
-        <v>2403.602</v>
+        <v>2403.6019999999999</v>
       </c>
       <c r="C9" s="11">
-        <v>2377.613</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:3">
+        <v>2377.6129999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="11">
-        <v>1892.772</v>
+        <v>1892.7719999999999</v>
       </c>
       <c r="C10" s="11">
         <v>1917.268</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="11">
-        <v>1578.214</v>
+        <v>1578.2139999999999</v>
       </c>
       <c r="C11" s="11">
         <v>1655.021</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +662,7 @@
         <v>1401.326</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1293,32 +670,32 @@
         <v>1035.566</v>
       </c>
       <c r="C13" s="11">
-        <v>1183.834</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:3">
+        <v>1183.8340000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="11">
-        <v>804.405</v>
+        <v>804.40499999999997</v>
       </c>
       <c r="C14" s="11">
         <v>990.31</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="11">
-        <v>584.956</v>
+        <v>584.95600000000002</v>
       </c>
       <c r="C15" s="11">
         <v>784.77</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1326,10 +703,10 @@
         <v>359.322</v>
       </c>
       <c r="C16" s="11">
-        <v>535.895</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:3">
+        <v>535.89499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1337,21 +714,21 @@
         <v>213.173</v>
       </c>
       <c r="C17" s="11">
-        <v>367.665</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:3">
+        <v>367.66500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="11">
-        <v>95.571</v>
+        <v>95.570999999999998</v>
       </c>
       <c r="C18" s="11">
-        <v>202.849</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:3">
+        <v>202.84899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
@@ -1359,21 +736,21 @@
         <v>28.462</v>
       </c>
       <c r="C19" s="11">
-        <v>75.492</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:3">
+        <v>75.492000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="11">
-        <v>4.071</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="C20" s="11">
         <v>14.023</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +761,7 @@
         <v>1.026</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
@@ -1392,19 +769,19 @@
         <v>0.01</v>
       </c>
       <c r="C22" s="11">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2375,28 +1752,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.1083333333333" customWidth="1"/>
-    <col min="3" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -2404,18 +1777,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="C2" s="12">
-        <v>12.3034016601603</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>12.303401660160301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2423,10 +1796,10 @@
         <v>114</v>
       </c>
       <c r="C3" s="12">
-        <v>45.5932105911354</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+        <v>45.593210591135403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2434,10 +1807,10 @@
         <v>121.5</v>
       </c>
       <c r="C4" s="12">
-        <v>87.9539333517565</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+        <v>87.953933351756504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +1821,7 @@
         <v>107.318717911465</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -2456,10 +1829,10 @@
         <v>51.3</v>
       </c>
       <c r="C6" s="12">
-        <v>64.6720968737279</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+        <v>64.672096873727895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2467,10 +1840,10 @@
         <v>18.3</v>
       </c>
       <c r="C7" s="12">
-        <v>15.4047684335841</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+        <v>15.404768433584101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2478,19 +1851,19 @@
         <v>4.2</v>
       </c>
       <c r="C8" s="12">
-        <v>1.43004733583908</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="3:3">
+        <v>1.4300473358390799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3477,26 +2850,22 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:5">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +2879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3521,13 +2890,13 @@
         <v>97880.89</v>
       </c>
       <c r="D2" s="9">
-        <v>99558.4662776319</v>
+        <v>99558.466277631902</v>
       </c>
       <c r="E2" s="9">
-        <v>99623.0063930079</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+        <v>99623.006393007905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="9">
         <v>5</v>
       </c>
@@ -3538,13 +2907,13 @@
         <v>97245.21</v>
       </c>
       <c r="D3" s="9">
-        <v>99454.210915998</v>
+        <v>99454.210915998003</v>
       </c>
       <c r="E3" s="9">
-        <v>99533.1184185677</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+        <v>99533.118418567698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="9">
         <v>10</v>
       </c>
@@ -3558,27 +2927,27 @@
         <v>99394.4514595152</v>
       </c>
       <c r="E4" s="9">
-        <v>99481.1646026676</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+        <v>99481.164602667603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>15</v>
       </c>
       <c r="B5" s="11">
-        <v>95739.2</v>
+        <v>95739.199999999997</v>
       </c>
       <c r="C5" s="11">
         <v>96760.57</v>
       </c>
       <c r="D5" s="9">
-        <v>99310.5473896343</v>
+        <v>99310.547389634303</v>
       </c>
       <c r="E5" s="9">
-        <v>99425.2312564958</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+        <v>99425.231256495797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="9">
         <v>20</v>
       </c>
@@ -3589,13 +2958,13 @@
         <v>96384.1</v>
       </c>
       <c r="D6" s="9">
-        <v>99092.4639638649</v>
+        <v>99092.463963864895</v>
       </c>
       <c r="E6" s="9">
-        <v>99328.8908378178</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+        <v>99328.890837817802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="9">
         <v>25</v>
       </c>
@@ -3609,10 +2978,10 @@
         <v>98706.3112918228</v>
       </c>
       <c r="E7" s="9">
-        <v>99180.6433619081</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+        <v>99180.643361908107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="9">
         <v>30</v>
       </c>
@@ -3626,10 +2995,10 @@
         <v>98225.6141636705</v>
       </c>
       <c r="E8" s="9">
-        <v>98981.0079860987</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:5">
+        <v>98981.007986098703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="9">
         <v>35</v>
       </c>
@@ -3640,13 +3009,13 @@
         <v>92154.07</v>
       </c>
       <c r="D9" s="9">
-        <v>97690.2460909222</v>
+        <v>97690.246090922199</v>
       </c>
       <c r="E9" s="9">
-        <v>98718.991690509</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5">
+        <v>98718.991690509007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="9">
         <v>40</v>
       </c>
@@ -3657,13 +3026,13 @@
         <v>89409.93</v>
       </c>
       <c r="D10" s="9">
-        <v>97047.3653193127</v>
+        <v>97047.365319312696</v>
       </c>
       <c r="E10" s="9">
-        <v>98363.8473817856</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:5">
+        <v>98363.847381785599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="9">
         <v>45</v>
       </c>
@@ -3674,47 +3043,47 @@
         <v>86321.56</v>
       </c>
       <c r="D11" s="9">
-        <v>96163.9727108916</v>
+        <v>96163.972710891598</v>
       </c>
       <c r="E11" s="9">
-        <v>97844.6675307386</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:5">
+        <v>97844.667530738603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="9">
         <v>50</v>
       </c>
       <c r="B12" s="11">
-        <v>75479.57</v>
+        <v>75479.570000000007</v>
       </c>
       <c r="C12" s="11">
-        <v>82831.74</v>
+        <v>82831.740000000005</v>
       </c>
       <c r="D12" s="9">
-        <v>94837.501492148</v>
+        <v>94837.501492148003</v>
       </c>
       <c r="E12" s="9">
-        <v>97050.3775135251</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+        <v>97050.377513525105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="9">
         <v>55</v>
       </c>
       <c r="B13" s="11">
-        <v>68911.24</v>
+        <v>68911.240000000005</v>
       </c>
       <c r="C13" s="11">
-        <v>78816.16</v>
+        <v>78816.160000000003</v>
       </c>
       <c r="D13" s="9">
-        <v>92779.747789658</v>
+        <v>92779.747789657995</v>
       </c>
       <c r="E13" s="9">
-        <v>95842.8064558969</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+        <v>95842.806455896905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="9">
         <v>60</v>
       </c>
@@ -3722,16 +3091,16 @@
         <v>61336.81</v>
       </c>
       <c r="C14" s="11">
-        <v>74199.15</v>
+        <v>74199.149999999994</v>
       </c>
       <c r="D14" s="9">
-        <v>89628.3819520735</v>
+        <v>89628.381952073498</v>
       </c>
       <c r="E14" s="9">
-        <v>94043.1256093588</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:5">
+        <v>94043.125609358802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="9">
         <v>65</v>
       </c>
@@ -3742,30 +3111,30 @@
         <v>68346.2</v>
       </c>
       <c r="D15" s="9">
-        <v>85020.5238482083</v>
+        <v>85020.523848208293</v>
       </c>
       <c r="E15" s="9">
-        <v>91404.9522708399</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:5">
+        <v>91404.952270839902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="9">
         <v>70</v>
       </c>
       <c r="B16" s="11">
-        <v>41398.34</v>
+        <v>41398.339999999997</v>
       </c>
       <c r="C16" s="11">
         <v>60328.87</v>
       </c>
       <c r="D16" s="9">
-        <v>78830.5019367089</v>
+        <v>78830.501936708897</v>
       </c>
       <c r="E16" s="9">
-        <v>87727.5718043054</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:5">
+        <v>87727.571804305393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="9">
         <v>75</v>
       </c>
@@ -3776,30 +3145,30 @@
         <v>49275.1</v>
       </c>
       <c r="D17" s="9">
-        <v>69972.6984654897</v>
+        <v>69972.698465489695</v>
       </c>
       <c r="E17" s="9">
-        <v>81920.9520650037</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:5">
+        <v>81920.952065003701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="9">
         <v>80</v>
       </c>
       <c r="B18" s="11">
-        <v>16989.01</v>
+        <v>16989.009999999998</v>
       </c>
       <c r="C18" s="11">
         <v>35073.79</v>
       </c>
       <c r="D18" s="9">
-        <v>57088.6391782002</v>
+        <v>57088.639178200203</v>
       </c>
       <c r="E18" s="9">
-        <v>72162.8292947842</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:5">
+        <v>72162.829294784198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="9">
         <v>85</v>
       </c>
@@ -3816,7 +3185,7 @@
         <v>57193.1158821754</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="9">
         <v>90</v>
       </c>
@@ -3827,13 +3196,13 @@
         <v>5889.1</v>
       </c>
       <c r="D20" s="9">
-        <v>22974.1725048295</v>
+        <v>22974.172504829501</v>
       </c>
       <c r="E20" s="9">
-        <v>37636.6254002739</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:5">
+        <v>37636.625400273901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="9">
         <v>95</v>
       </c>
@@ -3844,13 +3213,13 @@
         <v>775.59</v>
       </c>
       <c r="D21" s="9">
-        <v>9264.34435747396</v>
+        <v>9264.3443574739595</v>
       </c>
       <c r="E21" s="9">
-        <v>18137.7024147346</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:5">
+        <v>18137.702414734598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="9">
         <v>100</v>
       </c>
@@ -3861,22 +3230,22 @@
         <v>50.54</v>
       </c>
       <c r="D22" s="9">
-        <v>2308.82146574295</v>
+        <v>2308.8214657429498</v>
       </c>
       <c r="E22" s="9">
-        <v>5401.16446593289</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>5401.1644659328904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4847,26 +4216,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="2:6">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4883,7 +4250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>6</v>
       </c>
@@ -4903,12 +4270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="10">
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -4923,12 +4290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="10">
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
@@ -4943,12 +4310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="10">
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -4963,12 +4330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="10">
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -4983,12 +4350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -5003,12 +4370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -5023,12 +4390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -5043,15 +4410,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>103.08275</v>
+        <v>86.821340000000006</v>
       </c>
       <c r="C10" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -5063,15 +4430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>103.08275</v>
+        <v>86.821340000000006</v>
       </c>
       <c r="C11" s="9">
-        <v>96.61686</v>
+        <v>89.830629999999999</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -5083,18 +4450,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="C12" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D12" s="9">
-        <v>103.08275</v>
+        <v>86.821340000000006</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -5103,18 +4470,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="C13" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D13" s="9">
-        <v>103.08275</v>
+        <v>86.821340000000006</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -5123,18 +4490,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="C14" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D14" s="9">
-        <v>103.08275</v>
+        <v>86.821340000000006</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
@@ -5143,107 +4510,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>31.9</v>
+        <v>28.3</v>
       </c>
       <c r="C15" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D15" s="9">
-        <v>103.08275</v>
+        <v>6.5120800000000001</v>
       </c>
       <c r="E15" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="10">
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>31.9</v>
+        <v>28.3</v>
       </c>
       <c r="C16" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D16" s="9">
-        <v>103.08275</v>
+        <v>6.5120800000000001</v>
       </c>
       <c r="E16" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="10">
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>31.9</v>
+        <v>28.3</v>
       </c>
       <c r="C17" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D17" s="9">
-        <v>103.08275</v>
+        <v>6.5120800000000001</v>
       </c>
       <c r="E17" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="10">
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>31.9</v>
+        <v>28.3</v>
       </c>
       <c r="C18" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D18" s="9">
-        <v>103.08275</v>
+        <v>6.5120800000000001</v>
       </c>
       <c r="E18" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="10">
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <v>31.9</v>
+        <v>28.3</v>
       </c>
       <c r="C19" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D19" s="9">
-        <v>103.08275</v>
+        <v>6.5120800000000001</v>
       </c>
       <c r="E19" s="9">
-        <v>107.46317</v>
+        <v>80.309259999999995</v>
       </c>
       <c r="F19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="10">
         <v>24</v>
       </c>
@@ -5251,30 +4618,30 @@
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <v>-6.46589</v>
+        <v>3.00929</v>
       </c>
       <c r="D20" s="9">
-        <v>103.08275</v>
+        <v>6.5120800000000001</v>
       </c>
       <c r="E20" s="9">
-        <v>93.11317</v>
+        <v>66.589259999999996</v>
       </c>
       <c r="F20" s="9">
-        <v>14.35</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6245,25 +5612,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6280,12 +5646,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="9">
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>100.09591</v>
+        <v>0</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -6300,12 +5666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="9">
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -6320,12 +5686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="9">
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
@@ -6340,12 +5706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="9">
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -6360,12 +5726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="9">
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -6380,12 +5746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="9">
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -6400,12 +5766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="9">
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -6420,15 +5786,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="9">
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>102.12753</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="C9" s="9">
-        <v>100.09591</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -6440,15 +5806,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="9">
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>102.12753</v>
+        <v>84.468279999999993</v>
       </c>
       <c r="C10" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -6460,15 +5826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="9">
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>102.12753</v>
+        <v>84.468279999999993</v>
       </c>
       <c r="C11" s="9">
-        <v>100.09591</v>
+        <v>88.170469999999995</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -6480,18 +5846,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="9">
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>97.64946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D12" s="9">
-        <v>102.12753</v>
+        <v>84.468279999999993</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -6500,18 +5866,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="9">
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>97.64946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="C13" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D13" s="9">
-        <v>102.12753</v>
+        <v>84.468279999999993</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -6520,127 +5886,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="9">
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>20.3</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="C14" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D14" s="9">
-        <v>4.47806999999999</v>
+        <v>84.468279999999993</v>
       </c>
       <c r="E14" s="9">
-        <v>97.64946</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="9">
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>20.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C15" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D15" s="9">
-        <v>4.47806999999999</v>
+        <v>6.0619199999999998</v>
       </c>
       <c r="E15" s="9">
-        <v>97.64946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="9">
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>20.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C16" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D16" s="9">
-        <v>4.47806999999999</v>
+        <v>6.0619199999999998</v>
       </c>
       <c r="E16" s="9">
-        <v>97.64946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="9">
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>20.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C17" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D17" s="9">
-        <v>4.47806999999999</v>
+        <v>6.0619199999999998</v>
       </c>
       <c r="E17" s="9">
-        <v>97.64946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="9">
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>20.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C18" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D18" s="9">
-        <v>4.47806999999999</v>
+        <v>6.0619199999999998</v>
       </c>
       <c r="E18" s="9">
-        <v>97.64946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="9">
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <v>0</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C19" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D19" s="9">
-        <v>4.47806999999999</v>
+        <v>6.0619199999999998</v>
       </c>
       <c r="E19" s="9">
-        <v>89.14946</v>
+        <v>78.406360000000006</v>
       </c>
       <c r="F19" s="9">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="9">
         <v>24</v>
       </c>
@@ -6648,39 +6014,37 @@
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <v>-2.03161999999999</v>
+        <v>3.7021899999999999</v>
       </c>
       <c r="D20" s="9">
-        <v>4.47806999999999</v>
+        <v>6.0619199999999998</v>
       </c>
       <c r="E20" s="9">
-        <v>89.14946</v>
+        <v>70.206360000000004</v>
       </c>
       <c r="F20" s="9">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
@@ -6708,7 +6072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>15</v>
       </c>
@@ -6722,7 +6086,7 @@
         <v>7.7</v>
       </c>
       <c r="E2" s="6">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="F2" s="6">
         <v>90.63</v>
@@ -6740,7 +6104,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>25</v>
       </c>
@@ -6760,7 +6124,7 @@
         <v>83.57</v>
       </c>
       <c r="G3" s="6">
-        <v>75.76</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="H3" s="6">
         <v>8.9</v>
@@ -6772,7 +6136,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>35</v>
       </c>
@@ -6804,7 +6168,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>45</v>
       </c>
@@ -6818,7 +6182,7 @@
         <v>24.17</v>
       </c>
       <c r="E5" s="6">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="F5" s="6">
         <v>60.86</v>
@@ -6836,7 +6200,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>55</v>
       </c>
@@ -6868,16 +6232,16 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7864,26 +7228,22 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
@@ -7911,7 +7271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>15</v>
       </c>
@@ -7943,7 +7303,7 @@
         <v>5049</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>25</v>
       </c>
@@ -7957,7 +7317,7 @@
         <v>6.37</v>
       </c>
       <c r="E3" s="6">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F3" s="6">
         <v>83.3</v>
@@ -7966,7 +7326,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="6">
-        <v>8.71</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="I3" s="6">
         <v>4.88</v>
@@ -7975,7 +7335,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>35</v>
       </c>
@@ -7992,7 +7352,7 @@
         <v>5.19</v>
       </c>
       <c r="F4" s="6">
-        <v>74.32</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="G4" s="6">
         <v>59.52</v>
@@ -8007,7 +7367,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>45</v>
       </c>
@@ -8039,7 +7399,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>55</v>
       </c>
@@ -8047,7 +7407,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="6">
-        <v>9.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D6" s="6">
         <v>30.27</v>
@@ -8065,22 +7425,22 @@
         <v>8.56</v>
       </c>
       <c r="I6" s="6">
-        <v>8.47</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="J6" s="6">
         <v>1630</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -9067,27 +8427,23 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
-    <col min="2" max="26" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="26" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9098,7 +8454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -9113,7 +8469,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -9128,7 +8484,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -9143,7 +8499,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -9160,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -9177,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -9194,7 +8550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -9211,14 +8567,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -10205,7 +9561,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>